--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1599708.08802237</v>
+        <v>1597820.506505968</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>56.76542271507753</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.399486243251149</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.101067900718</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>136.1916198885551</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>242.2349106634676</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>154.8079596046692</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>404.3795358314625</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>325.2557485598865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>28.51033041214338</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>256.9535582402055</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>258.5789201965339</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.5406516018299</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>193.3558904388788</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.714461115521944</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>149.3448116382169</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>89.53315458193651</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>105.2882957363103</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.2425576766696</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,10 +2618,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>206.8064269214862</v>
+        <v>139.1537278750029</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>79.38273530297036</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>3.325743315795351</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329091</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789532</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463134</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2053.247973680502</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
-        <v>1684.28545674009</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1326.01975813334</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>940.2315055350957</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2456007454882</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>111.2817926436751</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2689.674862489686</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2471.040195461749</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2471.040195461749</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2139.977308118178</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>2139.977308118178</v>
       </c>
       <c r="X2" t="n">
-        <v>2443.387305656314</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y2" t="n">
-        <v>2053.247973680502</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="X4" t="n">
-        <v>590.5616913897119</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>509.7210873825632</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.4492616060802</v>
+        <v>688.4561315142853</v>
       </c>
       <c r="C5" t="n">
-        <v>589.4492616060802</v>
+        <v>319.4936145738736</v>
       </c>
       <c r="D5" t="n">
-        <v>231.1835629993297</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E5" t="n">
-        <v>231.1835629993297</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>224.2380622501262</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>210.3146581887171</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.0491016702019</v>
+        <v>1075.055971578407</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1220.384514694306</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>862.1188160875556</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>476.3305634893114</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.607930856721</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1975.946871698839</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761944</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>377.5443364482875</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>229.6312428658944</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>82.74129536798401</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5039,25 +5039,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,13 +5118,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6040140015125</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079765</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
         <v>1406.737288300438</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1239.367221830422</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="W13" t="n">
-        <v>693.9123150842264</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="X13" t="n">
-        <v>465.9227641862091</v>
+        <v>984.6827336245351</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.0663679705858</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>496.6650364395581</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>328.4897147593787</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>609.3753482118775</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>414.0663679705858</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y16" t="n">
-        <v>414.0663679705858</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>530.7956248556231</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>530.7956248556231</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>380.6789854432874</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>380.6789854432874</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>380.6789854432874</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>212.503663763108</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>1013.202406820125</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W19" t="n">
-        <v>723.7852367831648</v>
+        <v>933.236668829393</v>
       </c>
       <c r="X19" t="n">
-        <v>723.7852367831648</v>
+        <v>933.236668829393</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.7852367831648</v>
+        <v>712.4440896858629</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5832,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M21" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>616.0384892293823</v>
+      </c>
+      <c r="C22" t="n">
+        <v>447.1023063014754</v>
+      </c>
+      <c r="D22" t="n">
+        <v>447.1023063014754</v>
+      </c>
+      <c r="E22" t="n">
+        <v>299.1892127190823</v>
+      </c>
+      <c r="F22" t="n">
+        <v>299.1892127190823</v>
+      </c>
+      <c r="G22" t="n">
+        <v>299.1892127190823</v>
+      </c>
+      <c r="H22" t="n">
+        <v>208.7516828383384</v>
+      </c>
+      <c r="I22" t="n">
         <v>97.21709146028584</v>
-      </c>
-      <c r="C22" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="D22" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="E22" t="n">
-        <v>97.21709146028584</v>
-      </c>
-      <c r="F22" t="n">
-        <v>97.21709146028583</v>
-      </c>
-      <c r="G22" t="n">
-        <v>97.21709146028583</v>
-      </c>
-      <c r="H22" t="n">
-        <v>97.21709146028583</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>616.0384892293824</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>616.0384892293824</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5996,16 +5996,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>371.7442270155263</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>820.5263570570738</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>820.5263570570738</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>592.5368061590565</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>371.7442270155263</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6309,19 +6309,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.308300601151</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.6866369260346</v>
+        <v>656.51904529056</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794984</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485337</v>
+        <v>543.3437276440239</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475112</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309717</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6649,22 +6649,22 @@
         <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1711.782337138886</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1478.414563633815</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1279.490940709299</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>1045.834635953709</v>
+        <v>957.9946671386973</v>
       </c>
       <c r="X31" t="n">
-        <v>873.6059503370627</v>
+        <v>785.7659815220508</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5742364749035</v>
+        <v>782.406644839429</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083196</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7081,34 +7081,34 @@
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,34 +7157,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,43 +7394,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>181.9314425141225</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>104.874910276575</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>32.78140656352421</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9489,19 +9489,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>43.65987261462534</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23470,16 +23470,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>29.28379415837185</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>27.94407814005712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>30.37317676570622</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>32.35376495015839</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>145.1993672520142</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>102.7928316856111</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>59.3806737855996</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>61.95852536231752</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.74113413690307</v>
+        <v>82.39383318338638</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.96156912686179</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>160.0556534077423</v>
       </c>
     </row>
     <row r="32">
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.583178160801231e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920753.6512930255</v>
+        <v>920753.6512930256</v>
       </c>
     </row>
     <row r="11">
@@ -26314,19 +26314,19 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852503</v>
@@ -26335,25 +26335,25 @@
         <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143234</v>
+        <v>488186.5648143236</v>
       </c>
       <c r="L2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="M2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="N2" t="n">
+        <v>492625.0619185704</v>
+      </c>
+      <c r="O2" t="n">
+        <v>492625.0619185703</v>
+      </c>
+      <c r="P2" t="n">
         <v>492625.0619185701</v>
-      </c>
-      <c r="M2" t="n">
-        <v>492625.06191857</v>
-      </c>
-      <c r="N2" t="n">
-        <v>492625.0619185701</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185701</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492625.0619185703</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106726</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819118</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.39482819122</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819118</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-345834.7631459085</v>
       </c>
       <c r="C6" t="n">
-        <v>244133.116068636</v>
+        <v>244133.1160686359</v>
       </c>
       <c r="D6" t="n">
         <v>244133.1160686359</v>
       </c>
       <c r="E6" t="n">
-        <v>-170087.098327233</v>
+        <v>-170184.5574532055</v>
       </c>
       <c r="F6" t="n">
-        <v>355072.9381496631</v>
+        <v>354975.4790236907</v>
       </c>
       <c r="G6" t="n">
-        <v>355072.938149663</v>
+        <v>354975.4790236909</v>
       </c>
       <c r="H6" t="n">
-        <v>355072.9381496629</v>
+        <v>354975.4790236905</v>
       </c>
       <c r="I6" t="n">
-        <v>355072.938149663</v>
+        <v>354975.479023691</v>
       </c>
       <c r="J6" t="n">
-        <v>178649.71895707</v>
+        <v>178552.2598310979</v>
       </c>
       <c r="K6" t="n">
-        <v>307056.5208801876</v>
+        <v>307038.0271422535</v>
       </c>
       <c r="L6" t="n">
-        <v>339973.6544694867</v>
+        <v>339973.6544694869</v>
       </c>
       <c r="M6" t="n">
-        <v>215515.5460365163</v>
+        <v>215515.5460365166</v>
       </c>
       <c r="N6" t="n">
-        <v>350316.5612703536</v>
+        <v>350316.5612703538</v>
       </c>
       <c r="O6" t="n">
-        <v>350316.5612703536</v>
+        <v>350316.5612703537</v>
       </c>
       <c r="P6" t="n">
-        <v>306153.955967508</v>
+        <v>306153.9559675078</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26741,37 +26741,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>267.1573500492796</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>167.0162265657204</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923383</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>25.04447104930085</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>89.51803550048206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>112.4481309572154</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>169.114813159688</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.49650991024896</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>2.496509910248449</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>138.7994718469075</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29338,10 +29338,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>255.4503488645142</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,13 +35662,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>120.7944393485983</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713069</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36762,16 +36762,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36847,13 +36847,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37877,7 +37877,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>85.570051569532</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
